--- a/Income/CSGP_inc.xlsx
+++ b/Income/CSGP_inc.xlsx
@@ -2124,16 +2124,16 @@
         <v>0.7761</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.7722</v>
+        <v>0.7795</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.7777</v>
+        <v>0.7853</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.7813</v>
+        <v>0.7892</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.7851</v>
+        <v>0.7934</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.7893</v>
@@ -2632,16 +2632,16 @@
         <v>0.2822</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.293</v>
+        <v>0.277</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.3085</v>
+        <v>0.2917</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.2934</v>
+        <v>0.276</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.3122</v>
+        <v>0.294</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.3079</v>
@@ -3648,16 +3648,16 @@
         <v>0.2607</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.2904</v>
+        <v>0.2995</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.3123</v>
+        <v>0.3219</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.3179</v>
+        <v>0.3278</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.3462</v>
+        <v>0.3565</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.371</v>
@@ -3775,16 +3775,16 @@
         <v>0.3114</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.3208</v>
+        <v>0.3047</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.3379</v>
+        <v>0.3211</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.3234</v>
+        <v>0.306</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.3452</v>
+        <v>0.3271</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.3467</v>
